--- a/data/trans_camb/P15-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P15-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P15-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P15-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,01; 14,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,41; 3,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,24; 5,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,76; 5,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,32; 6,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,32; 4,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,97; 7,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,44; 3,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,39; 3,45</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,44%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,65%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,16%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,37; 385,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,4; 104,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,56; 222,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,38; 177,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,99; 231,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,58; 145,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,89; 158,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,56; 76,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,48; 99,81</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,19; 1,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,07; 1,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,36; 2,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 6,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 5,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 3,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 3,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 2,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 2,24</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,85%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,04; 24,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,61; 15,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,99; 28,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,72; 156,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,1; 147,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,0; 96,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,21; 54,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,64; 42,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,35; 38,81</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,18</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,36; 1,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,21; -0,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,91; 0,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 3,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; 0,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,29; 2,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 1,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,74; -0,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,94; 0,58</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,94%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,92%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,61; 25,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,35; -6,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,27; 7,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,11; 68,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,97; 12,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,55; 45,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,01; 28,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,24; -8,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,81; 8,55</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 3,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,35; 0,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,22; -0,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 4,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,2; 0,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 2,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 3,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,22; 0,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,15; 0,43</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,37%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,28%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,69%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,29%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,39%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,93%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,65; 70,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,63; 11,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,68; -4,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,94; 117,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,86; 27,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,67; 69,02</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,3; 71,49</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,93; 3,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,16; 7,94</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,15; 6,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; 2,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 2,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 4,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 3,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 3,96</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,49; 4,52</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 2,68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 2,59</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,26%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,99%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,44%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,46%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,32%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,22%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,16; 128,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,29; 61,65</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,53; 53,41</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,83; 131,26</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,81; 100,16</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,39; 112,07</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,89; 103,1</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,84; 59,38</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,97; 58,25</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 2,41</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; -0,31</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; 0,01</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 3,23</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 1,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 1,98</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,58; 2,46</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 0,27</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 0,7</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,72%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,38%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,41%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,19%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,35%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,32%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,56; 36,06</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,67; -4,88</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,11; 0,43</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,68; 68,54</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,39; 27,67</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,01; 40,09</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,68; 41,73</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,5; 4,44</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,53; 11,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P15-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P15-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-0,02</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 14,42</t>
+          <t>-3,01; 2,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 3,29</t>
+          <t>-4,71; 0,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 5,73</t>
+          <t>-4,21; 1,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 5,09</t>
+          <t>-0,21; 5,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 6,35</t>
+          <t>-0,59; 4,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 4,42</t>
+          <t>-0,84; 3,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 7,86</t>
+          <t>-0,73; 3,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 3,03</t>
+          <t>-1,97; 2,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 3,45</t>
+          <t>-1,85; 1,9</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>85,24%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-36,1%</t>
+          <t>-25,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-20,44%</t>
+          <t>-15,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,7%</t>
+          <t>49,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-10,58%</t>
+          <t>40,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,24%</t>
+          <t>24,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>19,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-24,65%</t>
+          <t>-0,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-14,16%</t>
+          <t>-0,27%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 385,49</t>
+          <t>-31,54; 42,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-85,4; 104,22</t>
+          <t>-49,4; 8,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,56; 222,49</t>
+          <t>-41,94; 28,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-77,38; 177,42</t>
+          <t>-6,3; 116,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,99; 231,85</t>
+          <t>-9,85; 114,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-61,58; 145,43</t>
+          <t>-13,54; 90,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,89; 158,24</t>
+          <t>-8,87; 56,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-69,56; 76,88</t>
+          <t>-24,75; 35,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-55,48; 99,81</t>
+          <t>-23,66; 32,72</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-1,63</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 1,55</t>
+          <t>-3,36; 1,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 1,04</t>
+          <t>-5,21; -0,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 2,02</t>
+          <t>-6,89; -0,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 6,21</t>
+          <t>-1,04; 3,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 5,59</t>
+          <t>-3,63; 0,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,57</t>
+          <t>-2,26; 2,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 3,01</t>
+          <t>-1,62; 1,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 2,54</t>
+          <t>-3,74; -0,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 2,24</t>
+          <t>-4,07; 0,24</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-13,7%</t>
+          <t>-8,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-23,98%</t>
+          <t>-32,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-13,15%</t>
+          <t>-35,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>64,73%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>53,44%</t>
+          <t>-23,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
+          <t>-1,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>-28,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>-21,98%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,04; 24,09</t>
+          <t>-33,61; 25,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-50,61; 15,51</t>
+          <t>-51,35; -6,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,99; 28,71</t>
+          <t>-68,31; -5,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 156,34</t>
+          <t>-14,11; 68,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 147,04</t>
+          <t>-48,97; 12,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,0; 96,16</t>
+          <t>-32,33; 45,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 54,45</t>
+          <t>-20,01; 28,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 42,53</t>
+          <t>-44,24; -8,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 38,81</t>
+          <t>-50,14; 3,53</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-1,44</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 1,83</t>
+          <t>-2,02; 3,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,21; -0,52</t>
+          <t>-4,35; 0,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 0,43</t>
+          <t>-5,11; -0,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,4</t>
+          <t>-0,27; 4,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 0,56</t>
+          <t>-3,2; 0,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 2,14</t>
+          <t>-3,68; 2,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 1,87</t>
+          <t>-0,17; 3,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,74; -0,61</t>
+          <t>-3,22; 0,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 0,58</t>
+          <t>-3,83; 0,19</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-8,83%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-32,47%</t>
+          <t>-28,37%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-25,61%</t>
+          <t>-38,44%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>43,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-23,13%</t>
+          <t>-21,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,94%</t>
+          <t>-7,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-28,69%</t>
+          <t>-25,39%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-15,92%</t>
+          <t>-24,37%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,61; 25,19</t>
+          <t>-24,65; 70,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-51,35; -6,63</t>
+          <t>-53,63; 11,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,27; 7,46</t>
+          <t>-61,95; -2,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 68,61</t>
+          <t>-5,94; 117,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,97; 12,29</t>
+          <t>-52,86; 27,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,55; 45,43</t>
+          <t>-56,54; 48,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-20,01; 28,75</t>
+          <t>-3,3; 71,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-44,24; -8,35</t>
+          <t>-45,93; 3,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,81; 8,55</t>
+          <t>-55,47; 2,59</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>1,19</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 3,7</t>
+          <t>1,15; 6,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 0,57</t>
+          <t>-1,64; 2,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,22; -0,35</t>
+          <t>-2,01; 2,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 4,86</t>
+          <t>0,49; 4,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 0,96</t>
+          <t>-0,42; 3,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,76</t>
+          <t>-0,14; 3,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 3,56</t>
+          <t>1,49; 4,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 0,11</t>
+          <t>-0,41; 2,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 0,43</t>
+          <t>-0,33; 2,55</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>60,26%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-28,37%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-39,28%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>43,69%</t>
+          <t>53,99%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-21,29%</t>
+          <t>34,44%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>41,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>57,32%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-25,39%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-17,93%</t>
+          <t>23,24%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,65; 70,35</t>
+          <t>17,16; 128,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-53,63; 11,87</t>
+          <t>-23,29; 61,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-62,68; -4,55</t>
+          <t>-30,48; 53,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 117,95</t>
+          <t>8,83; 131,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-52,86; 27,35</t>
+          <t>-8,81; 100,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-35,67; 69,02</t>
+          <t>-2,18; 106,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 71,49</t>
+          <t>25,89; 103,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-45,93; 3,36</t>
+          <t>-7,84; 59,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-46,16; 7,94</t>
+          <t>-5,75; 56,5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>-0,48</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,15; 6,1</t>
+          <t>-0,29; 2,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,92</t>
+          <t>-2,8; -0,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 2,63</t>
+          <t>-3,11; -0,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,55</t>
+          <t>0,87; 3,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 3,63</t>
+          <t>-0,88; 1,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,24; 3,96</t>
+          <t>-0,64; 1,74</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,52</t>
+          <t>0,58; 2,46</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 2,68</t>
+          <t>-1,45; 0,27</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,59</t>
+          <t>-1,45; 0,46</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>60,26%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>-20,72%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>-22,05%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>53,99%</t>
+          <t>39,41%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>34,44%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>46,46%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>57,32%</t>
+          <t>24,19%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>-10,35%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>25,22%</t>
+          <t>-7,62%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>17,16; 128,19</t>
+          <t>-3,56; 36,06</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 61,65</t>
+          <t>-34,67; -4,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-30,53; 53,41</t>
+          <t>-39,54; -3,82</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>8,83; 131,26</t>
+          <t>14,68; 68,54</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 100,16</t>
+          <t>-15,39; 27,67</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>4,39; 112,07</t>
+          <t>-11,12; 37,11</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>25,89; 103,1</t>
+          <t>8,68; 41,73</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 59,38</t>
+          <t>-21,5; 4,44</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 58,25</t>
+          <t>-21,93; 7,73</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-1,54</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-1,36</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,05</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,52</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,29; 2,41</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-2,8; -0,31</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-2,57; 0,01</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,87; 3,23</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,88; 1,26</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,2; 1,98</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,58; 2,46</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-1,45; 0,27</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 0,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>13,26%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-20,72%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-18,38%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>39,41%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>4,07%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>17,52%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>24,19%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-10,35%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-3,32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-3,56; 36,06</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-34,67; -4,88</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-32,11; 0,43</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>14,68; 68,54</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-15,39; 27,67</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-4,01; 40,09</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>8,68; 41,73</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-21,5; 4,44</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-14,53; 11,61</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P15-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P15-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 2,85</t>
+          <t>-3,08; 2,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 0,65</t>
+          <t>-4,91; 0,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 1,94</t>
+          <t>-4,09; 1,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 5,0</t>
+          <t>-0,45; 5,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 4,77</t>
+          <t>-0,5; 4,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 3,36</t>
+          <t>-0,96; 3,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 3,27</t>
+          <t>-0,66; 3,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 2,01</t>
+          <t>-1,96; 1,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 1,9</t>
+          <t>-1,77; 1,88</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,54; 42,72</t>
+          <t>-30,89; 42,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-49,4; 8,91</t>
+          <t>-49,54; 8,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-41,94; 28,73</t>
+          <t>-42,42; 25,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 116,66</t>
+          <t>-7,63; 131,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 114,14</t>
+          <t>-10,38; 127,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 90,44</t>
+          <t>-15,99; 79,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 56,68</t>
+          <t>-8,71; 60,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,75; 35,09</t>
+          <t>-26,39; 31,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-23,66; 32,72</t>
+          <t>-23,27; 31,65</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 1,83</t>
+          <t>-3,5; 1,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,21; -0,52</t>
+          <t>-5,16; -0,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,89; -0,32</t>
+          <t>-6,68; -0,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,4</t>
+          <t>-1,11; 3,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 0,56</t>
+          <t>-3,45; 0,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 2,14</t>
+          <t>-2,09; 2,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 1,87</t>
+          <t>-1,53; 1,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,74; -0,61</t>
+          <t>-3,75; -0,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 0,24</t>
+          <t>-3,82; 0,12</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,61; 25,19</t>
+          <t>-33,56; 26,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-51,35; -6,63</t>
+          <t>-51,23; -5,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-68,31; -5,08</t>
+          <t>-65,63; -2,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 68,61</t>
+          <t>-15,24; 71,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,97; 12,29</t>
+          <t>-47,36; 14,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,33; 45,81</t>
+          <t>-28,64; 47,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,01; 28,75</t>
+          <t>-18,68; 28,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,24; -8,35</t>
+          <t>-44,71; -8,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-50,14; 3,53</t>
+          <t>-45,71; 1,74</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 3,7</t>
+          <t>-1,97; 3,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 0,57</t>
+          <t>-4,57; 0,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,11; -0,21</t>
+          <t>-5,12; -0,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 4,86</t>
+          <t>-0,34; 4,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 0,96</t>
+          <t>-3,51; 0,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 2,11</t>
+          <t>-3,55; 2,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 3,56</t>
+          <t>-0,18; 3,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 0,11</t>
+          <t>-3,14; 0,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 0,19</t>
+          <t>-3,78; 0,14</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,65; 70,35</t>
+          <t>-25,38; 72,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,63; 11,87</t>
+          <t>-55,69; 8,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-61,95; -2,54</t>
+          <t>-62,61; -3,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 117,95</t>
+          <t>-7,47; 122,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,86; 27,35</t>
+          <t>-54,71; 26,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,54; 48,21</t>
+          <t>-56,58; 49,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 71,49</t>
+          <t>-2,5; 66,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-45,93; 3,36</t>
+          <t>-45,95; 5,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-55,47; 2,59</t>
+          <t>-54,76; 1,52</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,15; 6,1</t>
+          <t>1,23; 5,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,92</t>
+          <t>-1,62; 2,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 2,64</t>
+          <t>-1,76; 2,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,55</t>
+          <t>0,29; 4,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 3,63</t>
+          <t>-0,41; 3,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 3,71</t>
+          <t>-0,08; 3,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,52</t>
+          <t>1,41; 4,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 2,68</t>
+          <t>-0,4; 2,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 2,55</t>
+          <t>-0,26; 2,61</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17,16; 128,19</t>
+          <t>16,51; 121,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 61,65</t>
+          <t>-23,48; 56,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-30,48; 53,7</t>
+          <t>-25,27; 58,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,83; 131,26</t>
+          <t>5,81; 125,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 100,16</t>
+          <t>-8,11; 100,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 106,62</t>
+          <t>-1,32; 104,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>25,89; 103,1</t>
+          <t>24,93; 99,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 59,38</t>
+          <t>-7,66; 54,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 56,5</t>
+          <t>-4,56; 58,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 2,41</t>
+          <t>-0,34; 2,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,8; -0,31</t>
+          <t>-2,75; -0,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,11; -0,17</t>
+          <t>-3,27; -0,23</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,23</t>
+          <t>0,75; 3,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 1,26</t>
+          <t>-0,88; 1,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,74</t>
+          <t>-0,63; 1,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,46</t>
+          <t>0,53; 2,4</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,27</t>
+          <t>-1,47; 0,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,46</t>
+          <t>-1,51; 0,45</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 36,06</t>
+          <t>-4,29; 36,24</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-34,67; -4,88</t>
+          <t>-34,96; -5,06</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-39,54; -3,82</t>
+          <t>-41,03; -3,14</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>14,68; 68,54</t>
+          <t>12,14; 67,82</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 27,67</t>
+          <t>-16,38; 29,61</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 37,11</t>
+          <t>-11,54; 40,77</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>8,68; 41,73</t>
+          <t>7,49; 41,1</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-21,5; 4,44</t>
+          <t>-21,95; 4,09</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 7,73</t>
+          <t>-23,06; 7,79</t>
         </is>
       </c>
     </row>
